--- a/Extras/Casillas_finales.xlsx
+++ b/Extras/Casillas_finales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\relick-PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\syscheck\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2406,12 +2406,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2441,12 +2447,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2729,19 +2737,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="177.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" customWidth="1"/>
     <col min="9" max="9" width="82.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2793,13 +2802,13 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2822,13 +2831,13 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2851,13 +2860,13 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2880,13 +2889,13 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2909,13 +2918,13 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2938,13 +2947,13 @@
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2967,13 +2976,13 @@
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2996,13 +3005,13 @@
       <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3025,13 +3034,13 @@
       <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3054,13 +3063,13 @@
       <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3083,13 +3092,13 @@
       <c r="F12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3112,13 +3121,13 @@
       <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3141,13 +3150,13 @@
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="6" t="s">
         <v>81</v>
       </c>
     </row>
